--- a/examples/Python/Convergence/StationaryDiffusion/synthesis/test_synthesis_StationaryDiffusion_all.xlsx
+++ b/examples/Python/Convergence/StationaryDiffusion/synthesis/test_synthesis_StationaryDiffusion_all.xlsx
@@ -561,7 +561,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5446319580078125</v>
+        <v>0.5704150199890137</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -626,7 +626,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1664919853210449</v>
+        <v>0.1509251594543457</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -691,7 +691,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2.076117038726807</v>
+        <v>2.053256988525391</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06535887718200684</v>
+        <v>0.04685783386230469</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -821,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>9.758830070495605</v>
+        <v>9.754637956619263</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -886,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01290202140808105</v>
+        <v>0.01299595832824707</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -951,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1220889091491699</v>
+        <v>0.1078310012817383</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -1016,7 +1016,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>1.286300897598267</v>
+        <v>1.276360988616943</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1081,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>6.344155073165894</v>
+        <v>5.714885950088501</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1146,7 +1146,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3826830387115479</v>
+        <v>0.3073081970214844</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1211,7 +1211,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04188990592956543</v>
+        <v>0.01186394691467285</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1276,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03928089141845703</v>
+        <v>0.03953409194946289</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1341,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>12.87721920013428</v>
+        <v>14.33312797546387</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1404,7 +1404,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>88.93167400360107</v>
+        <v>99.24435091018677</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1467,7 +1467,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>2.135025024414062</v>
+        <v>2.313521146774292</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -1530,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01937103271484375</v>
+        <v>0.01349592208862305</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1593,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07358193397521973</v>
+        <v>0.08600306510925293</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -1656,7 +1656,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4057619571685791</v>
+        <v>0.4214069843292236</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6468000411987305</v>
+        <v>0.6422049999237061</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -1782,7 +1782,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>4.207299947738647</v>
+        <v>3.964146852493286</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -1845,7 +1845,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0953528881072998</v>
+        <v>0.09005188941955566</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01226401329040527</v>
+        <v>0.01261591911315918</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1971,7 +1971,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03071808815002441</v>
+        <v>0.03083395957946777</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -2034,7 +2034,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04498815536499023</v>
+        <v>0.02793502807617188</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -2097,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0140080451965332</v>
+        <v>0.0130620002746582</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -2160,7 +2160,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08423399925231934</v>
+        <v>0.06688213348388672</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -2223,7 +2223,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01334404945373535</v>
+        <v>0.01235103607177734</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
@@ -2288,7 +2288,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1739721298217773</v>
+        <v>0.1533589363098145</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -2353,7 +2353,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>2.233613014221191</v>
+        <v>2.0609290599823</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -2418,7 +2418,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5123910903930664</v>
+        <v>0.493441104888916</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -2483,7 +2483,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04956889152526855</v>
+        <v>0.03567218780517578</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -2548,7 +2548,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="n">
-        <v>10.56879687309265</v>
+        <v>9.741075038909912</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2613,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02034306526184082</v>
+        <v>0.01178598403930664</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2678,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1586940288543701</v>
+        <v>0.1100990772247314</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -2743,7 +2743,7 @@
         <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04728412628173828</v>
+        <v>0.04321789741516113</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -2808,7 +2808,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>2.404366970062256</v>
+        <v>1.743595838546753</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -2873,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5565400123596191</v>
+        <v>0.4172549247741699</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2938,7 +2938,7 @@
         <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>25.0909218788147</v>
+        <v>25.06800580024719</v>
       </c>
       <c r="E39" t="s">
         <v>34</v>
@@ -3001,7 +3001,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>178.8491489887238</v>
+        <v>179.1279811859131</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
@@ -3064,7 +3064,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>1.282193899154663</v>
+        <v>1.26123309135437</v>
       </c>
       <c r="E41" t="s">
         <v>34</v>
@@ -3127,7 +3127,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113008975982666</v>
+        <v>0.1114749908447266</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
@@ -3190,7 +3190,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>6.481223821640015</v>
+        <v>6.47984504699707</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
@@ -3253,7 +3253,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04925704002380371</v>
+        <v>0.04830098152160645</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
@@ -3316,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4297311305999756</v>
+        <v>0.406527042388916</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
@@ -3379,7 +3379,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8440427780151367</v>
+        <v>0.842940092086792</v>
       </c>
       <c r="E46" t="s">
         <v>34</v>
@@ -3442,7 +3442,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>2.005228042602539</v>
+        <v>2.003684997558594</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
@@ -3505,7 +3505,7 @@
         <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7702078819274902</v>
+        <v>0.7498798370361328</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -3570,7 +3570,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01677894592285156</v>
+        <v>0.03198504447937012</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -3635,7 +3635,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2081758975982666</v>
+        <v>0.1816260814666748</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -3700,7 +3700,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2235350608825684</v>
+        <v>0.01298999786376953</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -3765,7 +3765,7 @@
         <v>29</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04894900321960449</v>
+        <v>0.05528092384338379</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -3830,7 +3830,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2770760059356689</v>
+        <v>0.2879509925842285</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -3893,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02251410484313965</v>
+        <v>0.01412296295166016</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -3956,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05497384071350098</v>
+        <v>0.07988715171813965</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -4019,7 +4019,7 @@
         <v>29</v>
       </c>
       <c r="D56" t="n">
-        <v>0.03650188446044922</v>
+        <v>0.0333409309387207</v>
       </c>
       <c r="E56" t="s">
         <v>34</v>
@@ -4084,7 +4084,7 @@
         <v>29</v>
       </c>
       <c r="D57" t="n">
-        <v>5.826540946960449</v>
+        <v>5.730488061904907</v>
       </c>
       <c r="E57" t="s">
         <v>34</v>
@@ -4149,7 +4149,7 @@
         <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3001010417938232</v>
+        <v>0.2275040149688721</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
@@ -4214,7 +4214,7 @@
         <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>53.59704089164734</v>
+        <v>53.30519104003906</v>
       </c>
       <c r="E59" t="s">
         <v>34</v>
@@ -4279,7 +4279,7 @@
         <v>29</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01871609687805176</v>
+        <v>0.0175929069519043</v>
       </c>
       <c r="E60" t="s">
         <v>34</v>
@@ -4344,7 +4344,7 @@
         <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09244608879089355</v>
+        <v>0.06056118011474609</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
@@ -4409,7 +4409,7 @@
         <v>29</v>
       </c>
       <c r="D62" t="n">
-        <v>3.630842924118042</v>
+        <v>3.676536083221436</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
@@ -4474,7 +4474,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5306060314178467</v>
+        <v>0.5459098815917969</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
@@ -4539,7 +4539,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>1.350594997406006</v>
+        <v>1.279531002044678</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -4604,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01397991180419922</v>
+        <v>0.01209402084350586</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -4669,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02575802803039551</v>
+        <v>0.04854607582092285</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -4734,7 +4734,7 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08929300308227539</v>
+        <v>0.1074941158294678</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -4799,7 +4799,7 @@
         <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3214180469512939</v>
+        <v>0.3114171028137207</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -4864,7 +4864,7 @@
         <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>6.662341117858887</v>
+        <v>5.765976905822754</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -4929,7 +4929,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02098798751831055</v>
+        <v>0.01941585540771484</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
@@ -4994,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3352818489074707</v>
+        <v>0.3508529663085938</v>
       </c>
       <c r="E71" t="s">
         <v>34</v>
@@ -5059,7 +5059,7 @@
         <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9986889362335205</v>
+        <v>1.050707101821899</v>
       </c>
       <c r="E72" t="s">
         <v>34</v>
@@ -5124,7 +5124,7 @@
         <v>29</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1144609451293945</v>
+        <v>0.08148503303527832</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
@@ -5189,7 +5189,7 @@
         <v>29</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1675269603729248</v>
+        <v>0.1732320785522461</v>
       </c>
       <c r="E74" t="s">
         <v>34</v>

--- a/examples/Python/Convergence/StationaryDiffusion/synthesis/test_synthesis_StationaryDiffusion_all.xlsx
+++ b/examples/Python/Convergence/StationaryDiffusion/synthesis/test_synthesis_StationaryDiffusion_all.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5704150199890137</v>
+        <v>0.5395359992980957</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -626,7 +626,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1509251594543457</v>
+        <v>0.1433548927307129</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -691,7 +691,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2.053256988525391</v>
+        <v>2.262300968170166</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04685783386230469</v>
+        <v>0.05623912811279297</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -821,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>9.754637956619263</v>
+        <v>9.817861080169678</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -886,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01299595832824707</v>
+        <v>0.01216888427734375</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -951,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1078310012817383</v>
+        <v>0.09492707252502441</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -1016,7 +1016,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>1.276360988616943</v>
+        <v>1.267842054367065</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1081,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>5.714885950088501</v>
+        <v>5.680636882781982</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1146,7 +1146,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3073081970214844</v>
+        <v>0.307236909866333</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1211,7 +1211,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01186394691467285</v>
+        <v>0.01153898239135742</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1276,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03953409194946289</v>
+        <v>0.03873705863952637</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1341,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>14.33312797546387</v>
+        <v>12.47166299819946</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1404,7 +1404,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>99.24435091018677</v>
+        <v>84.89081001281738</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1467,7 +1467,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>2.313521146774292</v>
+        <v>2.060383081436157</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -1530,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01349592208862305</v>
+        <v>0.0178070068359375</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1593,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08600306510925293</v>
+        <v>0.07933187484741211</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -1656,7 +1656,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4214069843292236</v>
+        <v>0.3949019908905029</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6422049999237061</v>
+        <v>0.6400539875030518</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -1782,7 +1782,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>3.964146852493286</v>
+        <v>3.937340021133423</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -1845,7 +1845,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09005188941955566</v>
+        <v>0.07104301452636719</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01261591911315918</v>
+        <v>0.2067418098449707</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1971,7 +1971,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03083395957946777</v>
+        <v>0.02289414405822754</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -2028,20 +2028,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3940805562753593</v>
+        <v>0.04720637322375487</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02793502807617188</v>
+        <v>0.01120996475219727</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s"/>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
@@ -2056,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
@@ -2080,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3940805562753593</v>
+        <v>0.05205510527354818</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
@@ -2091,13 +2093,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6631506254230952</v>
+        <v>0.09151553643693577</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0130620002746582</v>
+        <v>0.3282999992370605</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -2119,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>40</v>
+        <v>6422</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -2143,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6631506254230952</v>
+        <v>0.09151553643693577</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -2154,13 +2156,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2189611632823095</v>
+        <v>0.04861943552271186</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06688213348388672</v>
+        <v>1.321429014205933</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -2182,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>934</v>
+        <v>25872</v>
       </c>
       <c r="M27" t="s">
         <v>32</v>
@@ -2206,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2189611632823095</v>
+        <v>0.04861943552271186</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -2217,22 +2219,20 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06621946762560382</v>
+        <v>0.3940805887801256</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01235103607177734</v>
+        <v>0.03643703460693359</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
+      <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -2247,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06695098748044818</v>
+        <v>0.3940805887801256</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
@@ -2282,22 +2282,20 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06469126527929753</v>
+        <v>0.6631505332206331</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1533589363098145</v>
+        <v>0.04392910003662109</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
+      <c r="F29" t="s"/>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
@@ -2312,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O29" t="s">
         <v>24</v>
@@ -2336,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>0.06471965034394458</v>
+        <v>0.6631505332206331</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -2347,22 +2345,20 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06255485971006453</v>
+        <v>0.2189610019667586</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0609290599823</v>
+        <v>0.06283998489379883</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" t="s">
-        <v>22</v>
-      </c>
+      <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -2377,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>80000</v>
+        <v>934</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
@@ -2401,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06255657471840614</v>
+        <v>0.2189610019667586</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -2412,13 +2408,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06325085207639647</v>
+        <v>0.06621946762560382</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493441104888916</v>
+        <v>0.01159191131591797</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -2442,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -2466,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>0.06325778881561246</v>
+        <v>0.06695098748044818</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -2477,13 +2473,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06797178543549376</v>
+        <v>0.06469126527929753</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03567218780517578</v>
+        <v>0.1403579711914062</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -2507,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M32" t="s">
         <v>26</v>
@@ -2531,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06815847506446479</v>
+        <v>0.06471965034394458</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -2542,13 +2538,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0621893076656993</v>
+        <v>0.06255485971006453</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33" t="n">
-        <v>9.741075038909912</v>
+        <v>2.049334049224854</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2572,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -2596,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06218973390644179</v>
+        <v>0.06255657471840614</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -2607,13 +2603,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1432171987011588</v>
+        <v>0.06325085207639647</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01178598403930664</v>
+        <v>0.4853599071502686</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2637,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>40</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="s">
         <v>26</v>
@@ -2661,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1450449320264222</v>
+        <v>0.06325778881561246</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -2672,13 +2668,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01778959549822379</v>
+        <v>0.06797178543549376</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1100990772247314</v>
+        <v>0.04772782325744629</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -2702,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>4300</v>
+        <v>800</v>
       </c>
       <c r="M35" t="s">
         <v>26</v>
@@ -2726,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0177992153861383</v>
+        <v>0.06815847506446479</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -2737,13 +2733,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04322357364294223</v>
+        <v>0.0621893076656993</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04321789741516113</v>
+        <v>9.678147792816162</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -2767,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>680</v>
+        <v>320000</v>
       </c>
       <c r="M36" t="s">
         <v>26</v>
@@ -2791,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04330118226476268</v>
+        <v>0.06218973390644179</v>
       </c>
       <c r="U36" t="n">
         <v>2</v>
@@ -2802,13 +2798,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.004513422810708844</v>
+        <v>0.1432171987011588</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>1.743595838546753</v>
+        <v>0.01338100433349609</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -2832,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>69200</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
@@ -2856,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>0.004513492486842331</v>
+        <v>0.1450449320264222</v>
       </c>
       <c r="U37" t="n">
         <v>2</v>
@@ -2867,13 +2863,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01267537926593907</v>
+        <v>0.01778959549822379</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4172549247741699</v>
+        <v>0.1091890335083008</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2897,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>17200</v>
+        <v>4300</v>
       </c>
       <c r="M38" t="s">
         <v>26</v>
@@ -2921,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01267640370701205</v>
+        <v>0.0177992153861383</v>
       </c>
       <c r="U38" t="n">
         <v>2</v>
@@ -2932,41 +2928,43 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.001372471176359302</v>
+        <v>0.04322357364294223</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>25.06800580024719</v>
+        <v>0.04390311241149902</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>48000</v>
+        <v>680</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O39" t="s">
         <v>24</v>
@@ -2984,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>0.002058706764538953</v>
+        <v>0.04330118226476268</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2995,41 +2993,43 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000609569035366575</v>
+        <v>0.004513422810708844</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>179.1279811859131</v>
+        <v>1.746417045593262</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>162000</v>
+        <v>69200</v>
       </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
@@ -3047,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0009143535530498625</v>
+        <v>0.004513492486842331</v>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3058,41 +3058,43 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005510277977487155</v>
+        <v>0.01267537926593907</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>1.26123309135437</v>
+        <v>0.4175221920013428</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>6000</v>
+        <v>17200</v>
       </c>
       <c r="M41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
@@ -3110,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>0.008265416966230732</v>
+        <v>0.01267640370701205</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3121,13 +3123,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0192454844974409</v>
+        <v>0.001372471176359302</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1114749908447266</v>
+        <v>25.04678297042847</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
@@ -3149,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>750</v>
+        <v>48000</v>
       </c>
       <c r="M42" t="s">
         <v>32</v>
@@ -3173,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0.03355839110270087</v>
+        <v>0.002058706764538953</v>
       </c>
       <c r="U42" t="n">
         <v>3</v>
@@ -3184,13 +3186,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02674744948154195</v>
+        <v>0.000609569035366575</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>6.47984504699707</v>
+        <v>179.1981909275055</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
@@ -3212,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>16834</v>
+        <v>162000</v>
       </c>
       <c r="M43" t="s">
         <v>32</v>
@@ -3236,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04012117422231293</v>
+        <v>0.0009143535530498625</v>
       </c>
       <c r="U43" t="n">
         <v>3</v>
@@ -3247,13 +3249,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1065494876632718</v>
+        <v>0.005510277977487155</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04830098152160645</v>
+        <v>1.24689507484436</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
@@ -3275,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>270</v>
+        <v>6000</v>
       </c>
       <c r="M44" t="s">
         <v>32</v>
@@ -3299,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1598242314949077</v>
+        <v>0.008265416966230732</v>
       </c>
       <c r="U44" t="n">
         <v>3</v>
@@ -3310,13 +3312,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128059107424298</v>
+        <v>0.0192454844974409</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
       </c>
       <c r="D45" t="n">
-        <v>0.406527042388916</v>
+        <v>0.1111829280853271</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
@@ -3338,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>2081</v>
+        <v>750</v>
       </c>
       <c r="M45" t="s">
         <v>32</v>
@@ -3362,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>0.192090817826559</v>
+        <v>0.03355839110270087</v>
       </c>
       <c r="U45" t="n">
         <v>3</v>
@@ -3373,13 +3375,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01725891811011715</v>
+        <v>0.02674744948154195</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>0.842940092086792</v>
+        <v>6.461352109909058</v>
       </c>
       <c r="E46" t="s">
         <v>34</v>
@@ -3401,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>4077</v>
+        <v>16834</v>
       </c>
       <c r="M46" t="s">
         <v>32</v>
@@ -3425,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02588837716517572</v>
+        <v>0.04012117422231293</v>
       </c>
       <c r="U46" t="n">
         <v>3</v>
@@ -3436,13 +3438,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06769571176537137</v>
+        <v>0.1065494876632718</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>2.003684997558594</v>
+        <v>0.04740810394287109</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
@@ -3464,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>7629</v>
+        <v>270</v>
       </c>
       <c r="M47" t="s">
         <v>32</v>
@@ -3488,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1015435676480722</v>
+        <v>0.1598242314949077</v>
       </c>
       <c r="U47" t="n">
         <v>3</v>
@@ -3499,43 +3501,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.007902225053733392</v>
+        <v>0.128059107424298</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7498798370361328</v>
+        <v>0.4082870483398438</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F48" t="s"/>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>25872</v>
+        <v>2081</v>
       </c>
       <c r="M48" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -3553,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>0.007903217495358328</v>
+        <v>0.192090817826559</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3564,43 +3564,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04317126214845879</v>
+        <v>0.01725891811011715</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03198504447937012</v>
+        <v>0.8385779857635498</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" t="s">
-        <v>22</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F49" t="s"/>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>224</v>
+        <v>4077</v>
       </c>
       <c r="M49" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
@@ -3618,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>0.04358040486275292</v>
+        <v>0.02588837716517572</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3629,43 +3627,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.011505282674172</v>
+        <v>0.06769571176537137</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1816260814666748</v>
+        <v>1.990171909332275</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F50" t="s"/>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H50" t="s">
         <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>6422</v>
+        <v>7629</v>
       </c>
       <c r="M50" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O50" t="s">
         <v>24</v>
@@ -3683,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01151013347114498</v>
+        <v>0.1015435676480722</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3694,13 +3690,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04115997257442749</v>
+        <v>0.007902225053733392</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01298999786376953</v>
+        <v>0.6672470569610596</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -3724,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>40</v>
+        <v>25872</v>
       </c>
       <c r="M51" t="s">
         <v>26</v>
@@ -3748,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04972168575894866</v>
+        <v>0.007903217495358328</v>
       </c>
       <c r="U51" t="n">
         <v>2</v>
@@ -3759,13 +3755,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02181982306404778</v>
+        <v>0.04317126214845879</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05528092384338379</v>
+        <v>0.02370309829711914</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -3789,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>934</v>
+        <v>224</v>
       </c>
       <c r="M52" t="s">
         <v>26</v>
@@ -3813,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02190713533101905</v>
+        <v>0.04358040486275292</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
@@ -3824,20 +3820,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1087052963633981</v>
+        <v>0.011505282674172</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2879509925842285</v>
+        <v>0.1614611148834229</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
-      <c r="F53" t="s"/>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
         <v>24</v>
@@ -3852,13 +3850,13 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>5000</v>
+        <v>6422</v>
       </c>
       <c r="M53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N53" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -3876,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1087052963633981</v>
+        <v>0.01151013347114498</v>
       </c>
       <c r="U53" t="n">
         <v>2</v>
@@ -3887,20 +3885,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7503307443105756</v>
+        <v>0.04115997257442749</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01412296295166016</v>
+        <v>0.01101398468017578</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
-      <c r="F54" t="s"/>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
         <v>24</v>
@@ -3915,13 +3915,13 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M54" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N54" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>0.7503307443105756</v>
+        <v>0.04972168575894866</v>
       </c>
       <c r="U54" t="n">
         <v>2</v>
@@ -3950,20 +3950,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2539544782776871</v>
+        <v>0.02181982306404778</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07988715171813965</v>
+        <v>0.03493690490722656</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s"/>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
         <v>24</v>
@@ -3978,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>800</v>
+        <v>934</v>
       </c>
       <c r="M55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N55" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4002,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2539544782776871</v>
+        <v>0.02190713533101905</v>
       </c>
       <c r="U55" t="n">
         <v>2</v>
@@ -4013,43 +4015,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05346237113399621</v>
+        <v>0.02829724233563646</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0333409309387207</v>
+        <v>4.042649030685425</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s">
         <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>750</v>
+        <v>80000</v>
       </c>
       <c r="M56" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -4067,10 +4067,10 @@
         <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0.08220526266791416</v>
+        <v>0.02829724233563646</v>
       </c>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4078,43 +4078,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05454324326862717</v>
+        <v>0.05577734108060861</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>5.730488061904907</v>
+        <v>0.9817299842834473</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F57" t="s"/>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="M57" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -4132,10 +4130,10 @@
         <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0.08219454187484548</v>
+        <v>0.05577734108060861</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4143,43 +4141,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05525756259719705</v>
+        <v>0.1087036806104159</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2275040149688721</v>
+        <v>0.2553930282592773</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F58" t="s"/>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M58" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
@@ -4197,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0.08443932671400367</v>
+        <v>0.1087036806104159</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4208,43 +4204,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05397381826557185</v>
+        <v>0.01426409235405202</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>53.30519104003906</v>
+        <v>17.67181396484375</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>162000</v>
+        <v>320000</v>
       </c>
       <c r="M59" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O59" t="s">
         <v>24</v>
@@ -4262,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>0.08112742468658363</v>
+        <v>0.01426409235405202</v>
       </c>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4273,43 +4267,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02237226073513343</v>
+        <v>0.7503307283176518</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0175929069519043</v>
+        <v>0.01299285888671875</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F60" t="s"/>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
@@ -4327,10 +4319,10 @@
         <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>0.03355839110270015</v>
+        <v>0.7503307283176518</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4338,43 +4330,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.005309251390856584</v>
+        <v>0.2539544973957278</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06056118011474609</v>
+        <v>0.07447695732116699</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F61" t="s"/>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M61" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O61" t="s">
         <v>24</v>
@@ -4392,10 +4382,10 @@
         <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>0.008265416966225719</v>
+        <v>0.2539544973957278</v>
       </c>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4403,13 +4393,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.000607066288925262</v>
+        <v>0.05346237113399621</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
       </c>
       <c r="D62" t="n">
-        <v>3.676536083221436</v>
+        <v>0.0337669849395752</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
@@ -4424,7 +4414,7 @@
         <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J62" t="n">
         <v>3</v>
@@ -4433,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>27000</v>
+        <v>750</v>
       </c>
       <c r="M62" t="s">
         <v>26</v>
@@ -4457,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0009143535530931287</v>
+        <v>0.08220526266791416</v>
       </c>
       <c r="U62" t="n">
         <v>3</v>
@@ -4468,13 +4458,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001359817651437778</v>
+        <v>0.05454324326862717</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5459098815917969</v>
+        <v>5.714422941207886</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
@@ -4489,7 +4479,7 @@
         <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J63" t="n">
         <v>3</v>
@@ -4498,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>8000</v>
+        <v>48000</v>
       </c>
       <c r="M63" t="s">
         <v>26</v>
@@ -4522,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>0.00205870676452436</v>
+        <v>0.08219454187484548</v>
       </c>
       <c r="U63" t="n">
         <v>3</v>
@@ -4533,37 +4523,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.056066120181832e-05</v>
+        <v>0.05525756259719705</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>1.279531002044678</v>
+        <v>0.2712221145629883</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s">
         <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="M64" t="s">
         <v>26</v>
@@ -4587,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>2.056192953892807e-05</v>
+        <v>0.08443932671400367</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4598,37 +4588,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03035384990433276</v>
+        <v>0.05397381826557185</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01209402084350586</v>
+        <v>53.33840203285217</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s">
         <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>25</v>
+        <v>162000</v>
       </c>
       <c r="M65" t="s">
         <v>26</v>
@@ -4652,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0.03355839110270011</v>
+        <v>0.08112742468658363</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4663,37 +4653,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.002046033716286644</v>
+        <v>0.02237226073513343</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04854607582092285</v>
+        <v>0.01694488525390625</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
         <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="M66" t="s">
         <v>26</v>
@@ -4717,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>0.002058706764536366</v>
+        <v>0.03355839110270015</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4728,37 +4718,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003287271086972465</v>
+        <v>0.005309251390856584</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1074941158294678</v>
+        <v>0.08751606941223145</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H67" t="s">
         <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M67" t="s">
         <v>26</v>
@@ -4782,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0003290517629419641</v>
+        <v>0.008265416966225719</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4793,37 +4783,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.22304693491871e-05</v>
+        <v>0.000607066288925262</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3114171028137207</v>
+        <v>3.609659194946289</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H68" t="s">
         <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M68" t="s">
         <v>26</v>
@@ -4847,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>8.225076224220625e-05</v>
+        <v>0.0009143535530931287</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4858,37 +4848,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.140355604171809e-06</v>
+        <v>0.001359817651437778</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>5.765976905822754</v>
+        <v>0.5273559093475342</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s">
         <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="M69" t="s">
         <v>26</v>
@@ -4912,10 +4902,10 @@
         <v>1</v>
       </c>
       <c r="T69" t="n">
-        <v>5.140434875730901e-06</v>
+        <v>0.00205870676452436</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4923,37 +4913,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1373685828308879</v>
+        <v>2.056066120181832e-05</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01941585540771484</v>
+        <v>1.265599012374878</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
         <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>270</v>
+        <v>40000</v>
       </c>
       <c r="M70" t="s">
         <v>26</v>
@@ -4977,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>0.2469016831623073</v>
+        <v>2.056192953892807e-05</v>
       </c>
       <c r="U70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4988,37 +4978,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06011288233503248</v>
+        <v>0.03035384990433276</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3508529663085938</v>
+        <v>0.01134800910949707</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
         <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>7629</v>
+        <v>25</v>
       </c>
       <c r="M71" t="s">
         <v>26</v>
@@ -5042,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0.09811268005866072</v>
+        <v>0.03355839110270011</v>
       </c>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5053,37 +5043,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04829377139200292</v>
+        <v>0.002046033716286644</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>1.050707101821899</v>
+        <v>0.03877115249633789</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
         <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>16834</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s">
         <v>26</v>
@@ -5107,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>0.07589566871761519</v>
+        <v>0.002058706764536366</v>
       </c>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5118,37 +5108,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0483422426407303</v>
+        <v>0.0003287271086972465</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08148503303527832</v>
+        <v>0.09764695167541504</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>2081</v>
+        <v>2500</v>
       </c>
       <c r="M73" t="s">
         <v>26</v>
@@ -5172,10 +5162,10 @@
         <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>0.08723262076393896</v>
+        <v>0.0003290517629419641</v>
       </c>
       <c r="U73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5183,37 +5173,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.06335319600360928</v>
+        <v>8.22304693491871e-05</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1732320785522461</v>
+        <v>0.3081820011138916</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
         <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>4077</v>
+        <v>10000</v>
       </c>
       <c r="M74" t="s">
         <v>26</v>
@@ -5237,9 +5227,399 @@
         <v>1</v>
       </c>
       <c r="T74" t="n">
+        <v>8.225076224220625e-05</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5.140355604171809e-06</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.723716020584106</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>160000</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>28</v>
+      </c>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5.140434875730901e-06</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1373685828308879</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01830315589904785</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>270</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>28</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.2469016831623073</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.06011288233503248</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3302237987518311</v>
+      </c>
+      <c r="E77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7629</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>27</v>
+      </c>
+      <c r="O77" t="s">
+        <v>24</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>28</v>
+      </c>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.09811268005866072</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.04829377139200292</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9897298812866211</v>
+      </c>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>16834</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>28</v>
+      </c>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78" t="b">
+        <v>1</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.07589566871761519</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0483422426407303</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0890190601348877</v>
+      </c>
+      <c r="E79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2081</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>28</v>
+      </c>
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.08723262076393896</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.06335319600360928</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1641750335693359</v>
+      </c>
+      <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4077</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" t="s">
+        <v>27</v>
+      </c>
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>28</v>
+      </c>
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
         <v>0.09807479699639379</v>
       </c>
-      <c r="U74" t="n">
+      <c r="U80" t="n">
         <v>3</v>
       </c>
     </row>
